--- a/Import_old_data_2.xlsx
+++ b/Import_old_data_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="137">
   <si>
     <t>Organisation</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>NAM</t>
+  </si>
+  <si>
+    <t>TUAN</t>
   </si>
 </sst>
 </file>
@@ -927,11 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL64"/>
+  <dimension ref="A1:BL65"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5786,7 +5789,7 @@
         <v>0.85</v>
       </c>
       <c r="AK35" s="15">
-        <f t="shared" ref="AK35:AK66" si="1">SUM(AL35:AR35)</f>
+        <f t="shared" ref="AK35:AK63" si="1">SUM(AL35:AR35)</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="AL35" s="16">
@@ -9771,6 +9774,11 @@
         <v>135</v>
       </c>
     </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
